--- a/LR1/1.3.xlsx
+++ b/LR1/1.3.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aliyas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AC2318-B61F-4F93-9F82-B535AB3D593E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B9AC2318-B61F-4F93-9F82-B535AB3D593E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8849CA3-EFA0-463D-8706-5C83155E1222}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>a</t>
   </si>
@@ -36,38 +47,35 @@
     <t>c</t>
   </si>
   <si>
+    <t>_</t>
+  </si>
+  <si>
     <t>q1</t>
   </si>
   <si>
+    <t>a,R,q2</t>
+  </si>
+  <si>
+    <t>b,R,q2</t>
+  </si>
+  <si>
+    <t>c,R,q2</t>
+  </si>
+  <si>
+    <t>_,L,q0!</t>
+  </si>
+  <si>
     <t>q2</t>
   </si>
   <si>
-    <t>a,R,q2</t>
-  </si>
-  <si>
     <t>a,R,q1</t>
-  </si>
-  <si>
-    <t>b,R,q2</t>
-  </si>
-  <si>
-    <t>c,R,q2</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>_,N,!</t>
-  </si>
-  <si>
-    <t>_,L,!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,12 +392,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -401,44 +409,44 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
